--- a/IRR_ols5.xlsx
+++ b/IRR_ols5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -83,79 +83,76 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">(1.073)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.097 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.987)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.112)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.991)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.498)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.132)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003 **</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.001)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.000)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       </t>
+    <t xml:space="preserve">1.672 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.657)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.620)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.679)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.587 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.334 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.941)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.119 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.713)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.001)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.000)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
   </si>
   <si>
     <t xml:space="preserve">(2)</t>
   </si>
   <si>
-    <t xml:space="preserve">      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.001) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.000) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.124) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.187 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.010) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.113) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.016) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.976) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.220) </t>
+    <t xml:space="preserve">0.002 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.703 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.684)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.632)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.550 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.637)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.598 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.261)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.772)   </t>
   </si>
 </sst>
 </file>
@@ -866,15 +863,15 @@
         <v>22</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>1.416</v>
+      <c r="B2" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>36</v>
@@ -885,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>36</v>
@@ -895,8 +892,8 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>24</v>
+      <c r="B4" s="8" t="n">
+        <v>0.938</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>36</v>
@@ -918,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>-1.779</v>
+        <v>0.148</v>
       </c>
       <c r="C6" s="45" t="s">
         <v>36</v>
@@ -939,8 +936,8 @@
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="n">
-        <v>1.663</v>
+      <c r="B8" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>36</v>
@@ -951,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>36</v>
@@ -961,8 +958,8 @@
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="n">
-        <v>0.456</v>
+      <c r="B10" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="49" t="s">
         <v>36</v>
@@ -973,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="50" t="s">
         <v>36</v>
@@ -983,8 +980,8 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="16" t="n">
-        <v>1.724</v>
+      <c r="B12" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="C12" s="51" t="s">
         <v>36</v>
@@ -995,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="52" t="s">
         <v>36</v>
@@ -1006,10 +1003,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -1017,10 +1014,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -1028,10 +1025,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -1039,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -1061,10 +1058,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
@@ -1072,10 +1069,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="59" t="n">
-        <v>1.539</v>
+        <v>36</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21">
@@ -1083,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -1094,10 +1091,10 @@
         <v>11</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="61" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="C22" s="61" t="n">
+        <v>1.053</v>
       </c>
     </row>
     <row r="23">
@@ -1105,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1116,10 +1113,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C24" s="63" t="n">
-        <v>-1.7</v>
+        <v>-0.089</v>
       </c>
     </row>
     <row r="25">
@@ -1127,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
@@ -1138,10 +1135,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="65" t="n">
-        <v>1.538</v>
+        <v>36</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27">
@@ -1149,10 +1146,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1160,10 +1157,10 @@
         <v>14</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="67" t="n">
-        <v>1.399</v>
+        <v>36</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29">
@@ -1171,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
@@ -1182,10 +1179,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C30" s="69" t="n">
-        <v>1.629</v>
+        <v>1.384</v>
       </c>
     </row>
     <row r="31">
@@ -1193,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
@@ -1204,7 +1201,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C32" s="71" t="s">
         <v>36</v>
@@ -1215,10 +1212,10 @@
         <v>17</v>
       </c>
       <c r="B33" s="37" t="n">
-        <v>0.118</v>
+        <v>0.144</v>
       </c>
       <c r="C33" s="72" t="n">
-        <v>0.116</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="34">
@@ -1226,10 +1223,10 @@
         <v>18</v>
       </c>
       <c r="B34" s="38" t="n">
-        <v>0.069</v>
+        <v>0.103</v>
       </c>
       <c r="C34" s="73" t="n">
-        <v>0.067</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="35">
@@ -1237,10 +1234,10 @@
         <v>19</v>
       </c>
       <c r="B35" s="39" t="n">
-        <v>2.423</v>
+        <v>3.551</v>
       </c>
       <c r="C35" s="74" t="n">
-        <v>2.37</v>
+        <v>3.315</v>
       </c>
     </row>
     <row r="36">

--- a/IRR_ols5.xlsx
+++ b/IRR_ols5.xlsx
@@ -12,54 +12,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">poly(Fund_GeoHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_GeoHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_StageHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_StageHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_PIGHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_PIGHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number_Investments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total_Investments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deal_Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_GeoEI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_GeoEI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_StageEI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_StageEI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_PIGEI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_PIGEI, 2)2</t>
+    <t xml:space="preserve">(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_GeoHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_GeoHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_StageHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_StageHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_PIGHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_PIGHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(Deal_Year)2012</t>
   </si>
   <si>
     <t xml:space="preserve"># observations</t>
@@ -83,83 +152,128 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.672 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.657)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.620)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.679)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.587 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.334 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.941)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.119 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.713)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.001)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.000)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.703 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.684)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.632)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.550 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.637)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.598 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.261)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.772)   </t>
+    <t xml:space="preserve">-10.556 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.571 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.832 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4.284)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4.683)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4.461)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4.170)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4.623)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.879)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4.260)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.697)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.690)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.224)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.177)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.162)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.160)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.120)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.148)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.102)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.090)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.081)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.068)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.050)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.049)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.042)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.051)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.070)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.085)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.089)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.073)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.154)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.152)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.184)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.375)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.258)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.700)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.311)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="70">
+  <numFmts count="80">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -230,6 +344,16 @@
     <numFmt numFmtId="50067" formatCode="0.000"/>
     <numFmt numFmtId="50068" formatCode="0.000"/>
     <numFmt numFmtId="50069" formatCode="0.000"/>
+    <numFmt numFmtId="50070" formatCode="0.000"/>
+    <numFmt numFmtId="50071" formatCode="0.000"/>
+    <numFmt numFmtId="50072" formatCode="0.000"/>
+    <numFmt numFmtId="50073" formatCode="0.000"/>
+    <numFmt numFmtId="50074" formatCode="0.000"/>
+    <numFmt numFmtId="50075" formatCode="0.000"/>
+    <numFmt numFmtId="50076" formatCode="0.000"/>
+    <numFmt numFmtId="50077" formatCode="0.000"/>
+    <numFmt numFmtId="50078" formatCode="0.000"/>
+    <numFmt numFmtId="50079" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -335,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -439,7 +563,7 @@
     <xf numFmtId="50028" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50029" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50029" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50030" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -454,7 +578,7 @@
     <xf numFmtId="50033" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50034" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50034" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50035" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -463,7 +587,10 @@
     <xf numFmtId="50036" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50037" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50037" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50038" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -475,7 +602,7 @@
     <xf numFmtId="50040" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50041" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50041" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50042" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -544,7 +671,7 @@
     <xf numFmtId="50063" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50064" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50064" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50065" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -559,7 +686,43 @@
     <xf numFmtId="50068" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50069" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50069" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50070" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50071" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50072" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50073" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50074" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50075" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50076" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50077" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50079" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -860,407 +1023,494 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>36</v>
+      <c r="B2" s="6" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>-0.524</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>36</v>
+        <v>2.625</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="n">
-        <v>0.148</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>36</v>
+        <v>48</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="n">
+        <v>1.444</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="n">
+        <v>-1.456</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="n">
+        <v>-2.661</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>-3.283</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="n">
+        <v>-3.175</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="n">
+        <v>-3.598</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="n">
+        <v>-2.576</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="21" t="n">
+        <v>-1.158</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="57" t="n">
-        <v>0</v>
+        <v>-2.071</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="23" t="n">
+        <v>-2.893</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="59" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="24" t="n">
+        <v>-1.725</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="n">
+        <v>-1.736</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="61" t="n">
-        <v>1.053</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="26" t="n">
+        <v>-3.474</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="27" t="n">
+        <v>-3.248</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="63" t="n">
-        <v>-0.089</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="28" t="n">
+        <v>-2.308</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="29" t="n">
+        <v>-1.292</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="30" t="n">
+        <v>-1.731</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>43</v>
+        <v>26</v>
+      </c>
+      <c r="B27" s="31" t="n">
+        <v>-3.304</v>
+      </c>
+      <c r="C27" s="74" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="67" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="32" t="n">
+        <v>-3.132</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="68" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="33" t="n">
+        <v>-2.115</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="69" t="n">
-        <v>1.384</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="34" t="n">
+        <v>-2.651</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="70" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="B31" s="35" t="n">
+        <v>-2.038</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="71" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B32" s="36" t="n">
+        <v>-1.593</v>
+      </c>
+      <c r="C32" s="79" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B33" s="37" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="C33" s="72" t="n">
-        <v>0.135</v>
+        <v>-3.241</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B34" s="38" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="C34" s="73" t="n">
-        <v>0.095</v>
+        <v>-2.22</v>
+      </c>
+      <c r="C34" s="81" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B35" s="39" t="n">
-        <v>3.551</v>
-      </c>
-      <c r="C35" s="74" t="n">
-        <v>3.315</v>
+        <v>-1.078</v>
+      </c>
+      <c r="C35" s="82" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
-        <v>20</v>
+      <c r="A36" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B36" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="75" t="n">
-        <v>0</v>
+        <v>-1.868</v>
+      </c>
+      <c r="C36" s="83" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="41" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="42" t="n">
+        <v>-4.961</v>
+      </c>
+      <c r="C38" s="85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="43" t="n">
+        <v>-1.274</v>
+      </c>
+      <c r="C39" s="86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="44" t="n">
+        <v>544</v>
+      </c>
+      <c r="C40" s="87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="45" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="C41" s="87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="46" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="C42" s="87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="47" t="n">
+        <v>1.166</v>
+      </c>
+      <c r="C43" s="87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="48" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="C44" s="88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A37:C37"/>
+  <mergeCells count="2">
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
